--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.0957412841844</v>
+        <v>38.60286033333333</v>
       </c>
       <c r="H2">
-        <v>37.0957412841844</v>
+        <v>115.808581</v>
       </c>
       <c r="I2">
-        <v>0.2579384483583467</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="J2">
-        <v>0.2579384483583467</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.59032480129757</v>
+        <v>3.787067333333333</v>
       </c>
       <c r="N2">
-        <v>3.59032480129757</v>
+        <v>11.361202</v>
       </c>
       <c r="O2">
-        <v>0.2991089299741437</v>
+        <v>0.3088123155238694</v>
       </c>
       <c r="P2">
-        <v>0.2991089299741437</v>
+        <v>0.3088123155238694</v>
       </c>
       <c r="Q2">
-        <v>133.1857599551254</v>
+        <v>146.1916313415958</v>
       </c>
       <c r="R2">
-        <v>133.1857599551254</v>
+        <v>1315.724682074362</v>
       </c>
       <c r="S2">
-        <v>0.077151693287656</v>
+        <v>0.08184183158432239</v>
       </c>
       <c r="T2">
-        <v>0.077151693287656</v>
+        <v>0.08184183158432239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.0957412841844</v>
+        <v>38.60286033333333</v>
       </c>
       <c r="H3">
-        <v>37.0957412841844</v>
+        <v>115.808581</v>
       </c>
       <c r="I3">
-        <v>0.2579384483583467</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="J3">
-        <v>0.2579384483583467</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.31819405516598</v>
+        <v>4.323660333333334</v>
       </c>
       <c r="N3">
-        <v>4.31819405516598</v>
+        <v>12.970981</v>
       </c>
       <c r="O3">
-        <v>0.3597475088589777</v>
+        <v>0.3525682121685818</v>
       </c>
       <c r="P3">
-        <v>0.3597475088589777</v>
+        <v>0.3525682121685817</v>
       </c>
       <c r="Q3">
-        <v>160.1866094853403</v>
+        <v>166.9056559764401</v>
       </c>
       <c r="R3">
-        <v>160.1866094853403</v>
+        <v>1502.150903787961</v>
       </c>
       <c r="S3">
-        <v>0.09279271423586528</v>
+        <v>0.09343807481685878</v>
       </c>
       <c r="T3">
-        <v>0.09279271423586528</v>
+        <v>0.09343807481685877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.0957412841844</v>
+        <v>38.60286033333333</v>
       </c>
       <c r="H4">
-        <v>37.0957412841844</v>
+        <v>115.808581</v>
       </c>
       <c r="I4">
-        <v>0.2579384483583467</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="J4">
-        <v>0.2579384483583467</v>
+        <v>0.2650212684862838</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.09488338768855</v>
+        <v>4.152602333333333</v>
       </c>
       <c r="N4">
-        <v>4.09488338768855</v>
+        <v>12.457807</v>
       </c>
       <c r="O4">
-        <v>0.3411435611668787</v>
+        <v>0.3386194723075489</v>
       </c>
       <c r="P4">
-        <v>0.3411435611668787</v>
+        <v>0.3386194723075489</v>
       </c>
       <c r="Q4">
-        <v>151.902734738599</v>
+        <v>160.3023278935408</v>
       </c>
       <c r="R4">
-        <v>151.902734738599</v>
+        <v>1442.720951041867</v>
       </c>
       <c r="S4">
-        <v>0.08799404083482541</v>
+        <v>0.08974136208510265</v>
       </c>
       <c r="T4">
-        <v>0.08799404083482541</v>
+        <v>0.08974136208510265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>74.2745906120449</v>
+        <v>74.45592499999999</v>
       </c>
       <c r="H5">
-        <v>74.2745906120449</v>
+        <v>223.367775</v>
       </c>
       <c r="I5">
-        <v>0.5164547732893082</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="J5">
-        <v>0.5164547732893082</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.59032480129757</v>
+        <v>3.787067333333333</v>
       </c>
       <c r="N5">
-        <v>3.59032480129757</v>
+        <v>11.361202</v>
       </c>
       <c r="O5">
-        <v>0.2991089299741437</v>
+        <v>0.3088123155238694</v>
       </c>
       <c r="P5">
-        <v>0.2991089299741437</v>
+        <v>0.3088123155238694</v>
       </c>
       <c r="Q5">
-        <v>266.6699047806485</v>
+        <v>281.9696013406166</v>
       </c>
       <c r="R5">
-        <v>266.6699047806485</v>
+        <v>2537.72641206555</v>
       </c>
       <c r="S5">
-        <v>0.154476234618604</v>
+        <v>0.1578538279725128</v>
       </c>
       <c r="T5">
-        <v>0.154476234618604</v>
+        <v>0.1578538279725128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.2745906120449</v>
+        <v>74.45592499999999</v>
       </c>
       <c r="H6">
-        <v>74.2745906120449</v>
+        <v>223.367775</v>
       </c>
       <c r="I6">
-        <v>0.5164547732893082</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="J6">
-        <v>0.5164547732893082</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.31819405516598</v>
+        <v>4.323660333333334</v>
       </c>
       <c r="N6">
-        <v>4.31819405516598</v>
+        <v>12.970981</v>
       </c>
       <c r="O6">
-        <v>0.3597475088589777</v>
+        <v>0.3525682121685818</v>
       </c>
       <c r="P6">
-        <v>0.3597475088589777</v>
+        <v>0.3525682121685817</v>
       </c>
       <c r="Q6">
-        <v>320.7320956308192</v>
+        <v>321.9221295041417</v>
       </c>
       <c r="R6">
-        <v>320.7320956308192</v>
+        <v>2897.299165537275</v>
       </c>
       <c r="S6">
-        <v>0.1857933181291567</v>
+        <v>0.1802202798091903</v>
       </c>
       <c r="T6">
-        <v>0.1857933181291567</v>
+        <v>0.1802202798091903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.2745906120449</v>
+        <v>74.45592499999999</v>
       </c>
       <c r="H7">
-        <v>74.2745906120449</v>
+        <v>223.367775</v>
       </c>
       <c r="I7">
-        <v>0.5164547732893082</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="J7">
-        <v>0.5164547732893082</v>
+        <v>0.5111642898850374</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.09488338768855</v>
+        <v>4.152602333333333</v>
       </c>
       <c r="N7">
-        <v>4.09488338768855</v>
+        <v>12.457807</v>
       </c>
       <c r="O7">
-        <v>0.3411435611668787</v>
+        <v>0.3386194723075489</v>
       </c>
       <c r="P7">
-        <v>0.3411435611668787</v>
+        <v>0.3386194723075489</v>
       </c>
       <c r="Q7">
-        <v>304.1457872246306</v>
+        <v>309.1858478854916</v>
       </c>
       <c r="R7">
-        <v>304.1457872246306</v>
+        <v>2782.672630969425</v>
       </c>
       <c r="S7">
-        <v>0.1761852205415476</v>
+        <v>0.1730901821033343</v>
       </c>
       <c r="T7">
-        <v>0.1761852205415476</v>
+        <v>0.1730901821033343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.4459216335598</v>
+        <v>32.60069533333333</v>
       </c>
       <c r="H8">
-        <v>32.4459216335598</v>
+        <v>97.80208599999999</v>
       </c>
       <c r="I8">
-        <v>0.2256067783523451</v>
+        <v>0.2238144416286788</v>
       </c>
       <c r="J8">
-        <v>0.2256067783523451</v>
+        <v>0.2238144416286788</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.59032480129757</v>
+        <v>3.787067333333333</v>
       </c>
       <c r="N8">
-        <v>3.59032480129757</v>
+        <v>11.361202</v>
       </c>
       <c r="O8">
-        <v>0.2991089299741437</v>
+        <v>0.3088123155238694</v>
       </c>
       <c r="P8">
-        <v>0.2991089299741437</v>
+        <v>0.3088123155238694</v>
       </c>
       <c r="Q8">
-        <v>116.4913971419271</v>
+        <v>123.4610283408191</v>
       </c>
       <c r="R8">
-        <v>116.4913971419271</v>
+        <v>1111.149255067372</v>
       </c>
       <c r="S8">
-        <v>0.06748100206788375</v>
+        <v>0.06911665596703419</v>
       </c>
       <c r="T8">
-        <v>0.06748100206788375</v>
+        <v>0.0691166559670342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.4459216335598</v>
+        <v>32.60069533333333</v>
       </c>
       <c r="H9">
-        <v>32.4459216335598</v>
+        <v>97.80208599999999</v>
       </c>
       <c r="I9">
-        <v>0.2256067783523451</v>
+        <v>0.2238144416286788</v>
       </c>
       <c r="J9">
-        <v>0.2256067783523451</v>
+        <v>0.2238144416286788</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.31819405516598</v>
+        <v>4.323660333333334</v>
       </c>
       <c r="N9">
-        <v>4.31819405516598</v>
+        <v>12.970981</v>
       </c>
       <c r="O9">
-        <v>0.3597475088589777</v>
+        <v>0.3525682121685818</v>
       </c>
       <c r="P9">
-        <v>0.3597475088589777</v>
+        <v>0.3525682121685817</v>
       </c>
       <c r="Q9">
-        <v>140.1077859124192</v>
+        <v>140.9543332518184</v>
       </c>
       <c r="R9">
-        <v>140.1077859124192</v>
+        <v>1268.588999266366</v>
       </c>
       <c r="S9">
-        <v>0.08116147649395569</v>
+        <v>0.07890985754253267</v>
       </c>
       <c r="T9">
-        <v>0.08116147649395569</v>
+        <v>0.07890985754253266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.4459216335598</v>
+        <v>32.60069533333333</v>
       </c>
       <c r="H10">
-        <v>32.4459216335598</v>
+        <v>97.80208599999999</v>
       </c>
       <c r="I10">
-        <v>0.2256067783523451</v>
+        <v>0.2238144416286788</v>
       </c>
       <c r="J10">
-        <v>0.2256067783523451</v>
+        <v>0.2238144416286788</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.09488338768855</v>
+        <v>4.152602333333333</v>
       </c>
       <c r="N10">
-        <v>4.09488338768855</v>
+        <v>12.457807</v>
       </c>
       <c r="O10">
-        <v>0.3411435611668787</v>
+        <v>0.3386194723075489</v>
       </c>
       <c r="P10">
-        <v>0.3411435611668787</v>
+        <v>0.3386194723075489</v>
       </c>
       <c r="Q10">
-        <v>132.8622654955086</v>
+        <v>135.3777235094891</v>
       </c>
       <c r="R10">
-        <v>132.8622654955086</v>
+        <v>1218.399511585402</v>
       </c>
       <c r="S10">
-        <v>0.07696429979050567</v>
+        <v>0.07578792811911189</v>
       </c>
       <c r="T10">
-        <v>0.07696429979050567</v>
+        <v>0.07578792811911191</v>
       </c>
     </row>
   </sheetData>
